--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DISTRITO_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DISTRITO_prediccion..xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC98E37-809D-47FD-8C05-A5C1ABDC1D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92677B45-1C52-4ED5-AB9F-AE5993DA6BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -159,7 +162,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1"/>
+              <a:rPr lang="en-US" sz="1000" b="1"/>
               <a:t>DISTRITO PREDICCIÓN</a:t>
             </a:r>
           </a:p>
@@ -169,8 +172,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18924977861187614"/>
-          <c:y val="4.0874741791041586E-2"/>
+          <c:x val="0.30174276354848467"/>
+          <c:y val="3.3109627435511498E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -209,10 +212,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3692743767815996E-2"/>
+          <c:x val="0.14384264841724187"/>
           <c:y val="0.15087731451486455"/>
-          <c:w val="0.8717272397137229"/>
-          <c:h val="0.68072697730159071"/>
+          <c:w val="0.85615735158275807"/>
+          <c:h val="0.72272117334418617"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -260,7 +263,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-D088-40C8-88DC-68E52AD8E63B}"/>
+                <c16:uniqueId val="{00000001-BEF6-4F7D-A15F-DB31E5153C33}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -279,7 +282,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-9622-4067-BC67-C15C2F362707}"/>
+                <c16:uniqueId val="{00000003-BEF6-4F7D-A15F-DB31E5153C33}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -298,7 +301,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9622-4067-BC67-C15C2F362707}"/>
+                <c16:uniqueId val="{00000005-BEF6-4F7D-A15F-DB31E5153C33}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -317,7 +320,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-9622-4067-BC67-C15C2F362707}"/>
+                <c16:uniqueId val="{00000007-BEF6-4F7D-A15F-DB31E5153C33}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -336,7 +339,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9622-4067-BC67-C15C2F362707}"/>
+                <c16:uniqueId val="{00000009-BEF6-4F7D-A15F-DB31E5153C33}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -348,12 +351,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86E55FE2-3010-4AC7-BAB8-F7945F8957B4}" type="CELLREF">
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-EC"/>
+                      <a:t>58,80%</a:t>
+                    </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -365,22 +366,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{86E55FE2-3010-4AC7-BAB8-F7945F8957B4}</c15:txfldGUID>
-                      <c15:f>Sheet1!$C$2</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>58,80%</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D088-40C8-88DC-68E52AD8E63B}"/>
+                  <c16:uniqueId val="{0000000A-BEF6-4F7D-A15F-DB31E5153C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -391,12 +380,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED2D0DB7-89E7-4311-9B18-E379BCDDF29B}" type="CELLREF">
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-EC"/>
+                      <a:t>22,20%</a:t>
+                    </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -408,22 +395,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ED2D0DB7-89E7-4311-9B18-E379BCDDF29B}</c15:txfldGUID>
-                      <c15:f>Sheet1!$C$3</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>22,20%</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D088-40C8-88DC-68E52AD8E63B}"/>
+                  <c16:uniqueId val="{00000001-BEF6-4F7D-A15F-DB31E5153C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -434,12 +409,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A64DEEED-67C3-4F09-AADB-8CA41A2CD0BE}" type="CELLREF">
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-EC"/>
+                      <a:t>19,10%</a:t>
+                    </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -451,22 +424,10 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A64DEEED-67C3-4F09-AADB-8CA41A2CD0BE}</c15:txfldGUID>
-                      <c15:f>Sheet1!$C$4</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>19,10%</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-9622-4067-BC67-C15C2F362707}"/>
+                  <c16:uniqueId val="{00000003-BEF6-4F7D-A15F-DB31E5153C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -497,16 +458,19 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{F477342C-F2AA-4D90-A6B6-B7F86B515A6C}</c15:txfldGUID>
-                      <c15:f>Sheet1!$C$5</c15:f>
+                      <c15:f>[1]Sheet1!$C$5</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>#¡REF!</c:v>
+                        </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9622-4067-BC67-C15C2F362707}"/>
+                  <c16:uniqueId val="{00000005-BEF6-4F7D-A15F-DB31E5153C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -537,16 +501,19 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{B4635378-EAE3-4064-BAF0-967243E485CB}</c15:txfldGUID>
-                      <c15:f>Sheet1!$C$6</c15:f>
+                      <c15:f>[1]Sheet1!$C$6</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>#¡REF!</c:v>
+                        </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-9622-4067-BC67-C15C2F362707}"/>
+                  <c16:uniqueId val="{00000007-BEF6-4F7D-A15F-DB31E5153C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -577,16 +544,19 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{89F176AD-2885-4362-9451-61E5C918A7F9}</c15:txfldGUID>
-                      <c15:f>Sheet1!$C$7</c15:f>
+                      <c15:f>[1]Sheet1!$C$7</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>#¡REF!</c:v>
+                        </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-9622-4067-BC67-C15C2F362707}"/>
+                  <c16:uniqueId val="{00000009-BEF6-4F7D-A15F-DB31E5153C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -647,7 +617,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -664,10 +634,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1390</c:v>
                 </c:pt>
@@ -682,7 +652,74 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D088-40C8-88DC-68E52AD8E63B}"/>
+              <c16:uniqueId val="{0000000B-BEF6-4F7D-A15F-DB31E5153C33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Nueva Prosperina, Distrito Sur, Pascuales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Portete, 9 de Octubre, Durán, Estero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Progreso, Florida, Modelo, Ceibos, Samborondón</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BEF6-4F7D-A15F-DB31E5153C33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1391,27 +1428,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>445852</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601224</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>439096</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182393</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>308676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C55425F-432C-5529-08E6-F2C83ABE9CB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9797A774-D647-479D-8707-C10835464DED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1426,6 +1465,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1718,7 +1770,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DISTRITO_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DISTRITO_prediccion..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92677B45-1C52-4ED5-AB9F-AE5993DA6BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAD63CF-0966-4F61-A8AB-8B2345C42A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -462,7 +475,7 @@
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>#¡REF!</c:v>
+                          <c:v>0,123</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -504,9 +517,6 @@
                       <c15:f>[1]Sheet1!$C$6</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>#¡REF!</c:v>
-                        </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
@@ -547,9 +557,6 @@
                       <c15:f>[1]Sheet1!$C$7</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>#¡REF!</c:v>
-                        </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
@@ -639,10 +646,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1390</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>400</c:v>
@@ -1474,7 +1481,19 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>0.123</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6"/>
+        </row>
+        <row r="7">
+          <cell r="C7"/>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1770,7 +1789,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1794,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1390</v>
+        <v>1154</v>
       </c>
       <c r="C2" s="2">
         <v>0.58799999999999997</v>
@@ -1805,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="C3" s="2">
         <v>0.222</v>
